--- a/Experiments/Measurements/Single Banner Vertical/V path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/V path/Transformed_Coordinates.xlsx
@@ -502,7 +502,7 @@
         <v>128.3384255354134</v>
       </c>
       <c r="H2" t="n">
-        <v>28.35518588952952</v>
+        <v>28.35518588952954</v>
       </c>
     </row>
     <row r="3">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>68.62524318094844</v>
+        <v>68.62524318094846</v>
       </c>
       <c r="H5" t="n">
-        <v>30.89698124405133</v>
+        <v>30.8969812440513</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
         <v>131.7297666370455</v>
       </c>
       <c r="H7" t="n">
-        <v>25.02231828603538</v>
+        <v>25.0223182860354</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>128.4138850175867</v>
       </c>
       <c r="H8" t="n">
-        <v>28.3084139768727</v>
+        <v>28.30841397687272</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>68.61343064309189</v>
+        <v>68.6134306430919</v>
       </c>
       <c r="H11" t="n">
-        <v>30.9045828953352</v>
+        <v>30.90458289533518</v>
       </c>
     </row>
     <row r="12">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>68.52935453074808</v>
+        <v>68.52935453074809</v>
       </c>
       <c r="H12" t="n">
-        <v>30.90241713141664</v>
+        <v>30.90241713141662</v>
       </c>
     </row>
     <row r="13">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>90.06940199390958</v>
+        <v>90.06940199390957</v>
       </c>
       <c r="H13" t="n">
-        <v>50.81557058565587</v>
+        <v>50.81557058565589</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
         <v>106.5105225738871</v>
       </c>
       <c r="H14" t="n">
-        <v>43.43673320197887</v>
+        <v>43.43673320197889</v>
       </c>
     </row>
     <row r="15">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>73.24753064855696</v>
+        <v>73.24753064855697</v>
       </c>
       <c r="H17" t="n">
-        <v>30.59554345502351</v>
+        <v>30.59554345502348</v>
       </c>
     </row>
     <row r="18">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>46.66916633473475</v>
+        <v>46.66916633473478</v>
       </c>
       <c r="H18" t="n">
-        <v>40.48857125953992</v>
+        <v>40.48857125953989</v>
       </c>
     </row>
     <row r="19">
@@ -1008,7 +1008,7 @@
         <v>106.649876507511</v>
       </c>
       <c r="H19" t="n">
-        <v>43.36513357010494</v>
+        <v>43.36513357010497</v>
       </c>
     </row>
     <row r="20">
@@ -1038,7 +1038,7 @@
         <v>106.5296400603996</v>
       </c>
       <c r="H20" t="n">
-        <v>43.46911802398048</v>
+        <v>43.4691180239805</v>
       </c>
     </row>
     <row r="21">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>46.64564739815902</v>
+        <v>46.64564739815904</v>
       </c>
       <c r="H23" t="n">
-        <v>40.5052023522541</v>
+        <v>40.50520235225408</v>
       </c>
     </row>
     <row r="24">
@@ -1158,7 +1158,7 @@
         <v>103.3604816517521</v>
       </c>
       <c r="H24" t="n">
-        <v>27.68522042556005</v>
+        <v>27.6852204255601</v>
       </c>
     </row>
     <row r="25">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>56.63351515625086</v>
+        <v>56.63351515625084</v>
       </c>
       <c r="H25" t="n">
-        <v>40.9864101933175</v>
+        <v>40.98641019331753</v>
       </c>
     </row>
     <row r="26">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>96.57742559037743</v>
+        <v>96.57742559037746</v>
       </c>
       <c r="H26" t="n">
-        <v>42.93077661400977</v>
+        <v>42.93077661400972</v>
       </c>
     </row>
     <row r="27">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>76.49630970970613</v>
+        <v>76.49630970970608</v>
       </c>
       <c r="H27" t="n">
-        <v>42.01589530830195</v>
+        <v>42.01589530830199</v>
       </c>
     </row>
     <row r="28">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>98.39805691011493</v>
+        <v>98.3980569101149</v>
       </c>
       <c r="H30" t="n">
-        <v>29.65371041876676</v>
+        <v>29.6537104187668</v>
       </c>
     </row>
     <row r="31">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>93.63010371866056</v>
+        <v>93.63010371866058</v>
       </c>
       <c r="H31" t="n">
-        <v>29.80320270699664</v>
+        <v>29.80320270699661</v>
       </c>
     </row>
     <row r="32">
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>78.05206462077831</v>
+        <v>78.0520646207783</v>
       </c>
       <c r="H32" t="n">
-        <v>30.55793993476993</v>
+        <v>30.55793993476995</v>
       </c>
     </row>
     <row r="33">
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>78.59280051236202</v>
+        <v>78.592800512362</v>
       </c>
       <c r="H33" t="n">
-        <v>30.5553143259305</v>
+        <v>30.55531432593052</v>
       </c>
     </row>
     <row r="34">
@@ -1458,7 +1458,7 @@
         <v>113.5508215479363</v>
       </c>
       <c r="H34" t="n">
-        <v>28.99411429761224</v>
+        <v>28.99411429761219</v>
       </c>
     </row>
     <row r="35">
@@ -1488,7 +1488,7 @@
         <v>107.7030123877353</v>
       </c>
       <c r="H35" t="n">
-        <v>31.08724807285088</v>
+        <v>31.08724807285083</v>
       </c>
     </row>
     <row r="36">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>71.90824822646394</v>
+        <v>71.90824822646391</v>
       </c>
       <c r="H36" t="n">
-        <v>37.31687853393983</v>
+        <v>37.31687853393988</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>103.4355742612159</v>
       </c>
       <c r="H37" t="n">
-        <v>29.4547006329346</v>
+        <v>29.45470063293462</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>118.059099948307</v>
       </c>
       <c r="H39" t="n">
-        <v>26.49940622174643</v>
+        <v>26.49940622174638</v>
       </c>
     </row>
     <row r="40">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>78.49515959842699</v>
+        <v>78.49515959842698</v>
       </c>
       <c r="H40" t="n">
-        <v>30.46065012821082</v>
+        <v>30.46065012821084</v>
       </c>
     </row>
     <row r="41">
@@ -1668,7 +1668,7 @@
         <v>118.5665767288546</v>
       </c>
       <c r="H41" t="n">
-        <v>28.7305044965081</v>
+        <v>28.73050449650805</v>
       </c>
     </row>
     <row r="42">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>71.54192502383621</v>
+        <v>71.54192502383623</v>
       </c>
       <c r="H43" t="n">
-        <v>41.74399520749754</v>
+        <v>41.74399520749752</v>
       </c>
     </row>
     <row r="44">
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>96.54246980821672</v>
+        <v>96.54246980821677</v>
       </c>
       <c r="H45" t="n">
-        <v>42.92173342865234</v>
+        <v>42.9217334286523</v>
       </c>
     </row>
     <row r="46">
@@ -1818,7 +1818,7 @@
         <v>103.2722223386747</v>
       </c>
       <c r="H46" t="n">
-        <v>27.71980356222375</v>
+        <v>27.7198035622238</v>
       </c>
     </row>
     <row r="47">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>83.07482590602545</v>
+        <v>83.07482590602542</v>
       </c>
       <c r="H47" t="n">
-        <v>30.67781763665059</v>
+        <v>30.67781763665062</v>
       </c>
     </row>
     <row r="48">
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>81.48773390700514</v>
+        <v>81.48773390700512</v>
       </c>
       <c r="H48" t="n">
-        <v>42.24130378717798</v>
+        <v>42.24130378717801</v>
       </c>
     </row>
     <row r="49">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>96.43977170286985</v>
+        <v>96.43977170286988</v>
       </c>
       <c r="H49" t="n">
-        <v>43.01379907865388</v>
+        <v>43.01379907865383</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>76.73701702066901</v>
+        <v>76.73701702066897</v>
       </c>
       <c r="H50" t="n">
-        <v>41.87276137213255</v>
+        <v>41.87276137213259</v>
       </c>
     </row>
     <row r="51">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>91.56568515406292</v>
+        <v>91.56568515406295</v>
       </c>
       <c r="H51" t="n">
-        <v>42.73738672728155</v>
+        <v>42.7373867272815</v>
       </c>
     </row>
   </sheetData>
